--- a/reports/stat_rep_template/pattern.xlsx
+++ b/reports/stat_rep_template/pattern.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMURAI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMURAI\PycharmProjects\soc_reports\reports\stat_rep_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE321F3-93F9-49A5-BF29-7C931347E13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C5016-F194-4AA1-9DB3-2D8B9D7A3181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,24 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -397,7 +379,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,32 +698,32 @@
       <c r="X1" s="11"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="U3" s="11"/>
@@ -741,27 +741,27 @@
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="26" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="28"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
       <c r="U4" s="13" t="s">
         <v>15</v>
       </c>
@@ -779,41 +779,41 @@
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="30" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="36"/>
+      <c r="L5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29" t="s">
+      <c r="M5" s="36"/>
+      <c r="N5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="28"/>
+      <c r="O5" s="36"/>
       <c r="P5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29" t="s">
+      <c r="R5" s="36"/>
+      <c r="S5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="28"/>
+      <c r="T5" s="36"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
@@ -886,33 +886,33 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="K7" s="24"/>
+      <c r="L7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="32"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
@@ -920,17 +920,17 @@
       <c r="P7" s="3">
         <v>0</v>
       </c>
-      <c r="Q7" s="31" t="s">
+      <c r="Q7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="32"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="24"/>
       <c r="U7" s="5"/>
       <c r="V7" s="6"/>
       <c r="W7" s="5"/>
       <c r="X7" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="19"/>
     </row>
@@ -960,24 +960,24 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="34"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="26"/>
       <c r="U8" s="5"/>
       <c r="V8" s="7"/>
       <c r="W8" s="20"/>
       <c r="X8" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="19"/>
     </row>
@@ -990,13 +990,13 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -1007,12 +1007,12 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -1020,15 +1020,15 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="34"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="26"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="19"/>
     </row>
@@ -1058,10 +1058,10 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="4">
         <v>0</v>
       </c>
@@ -1071,15 +1071,15 @@
       <c r="P10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="36"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="28"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="21"/>
       <c r="X10" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="19"/>
     </row>
@@ -1088,75 +1088,75 @@
         <v>8</v>
       </c>
       <c r="C11" s="10">
-        <f>SUM(C7:C10)</f>
+        <f t="shared" ref="C11:T11" si="0">SUM(C7:C10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <f>SUM(D7:D10)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E11" s="10">
-        <f>SUM(E7:E10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="10">
-        <f>SUM(F7:F10)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G11" s="10">
-        <f>SUM(G7:G10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="10">
-        <f>SUM(H7:H10)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I11" s="10">
-        <f>SUM(I7:I10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <f>SUM(J7:J10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="10">
-        <f>SUM(K7:K10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11" s="10">
-        <f>SUM(L7:L10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="10">
-        <f>SUM(M7:M10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11" s="10">
-        <f>SUM(N7:N10)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O11" s="10">
-        <f>SUM(O7:O10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f>SUM(P7:P10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q11" s="10">
-        <f>SUM(Q7:Q10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R11" s="10">
-        <f>SUM(R7:R10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S11" s="10">
-        <f>SUM(S7:S10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T11" s="10">
-        <f>SUM(T7:T10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U11" s="5"/>
